--- a/TR-SLL FEA Analysis/SimpleLayerStiffness.xlsx
+++ b/TR-SLL FEA Analysis/SimpleLayerStiffness.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-First\HSA-Gripper\TR-SLL FEA Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Git-First\HSA-Gripper\TR-SLL FEA Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E160B55-17C3-4FCB-A570-696F65C4679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76008D1-7D1E-46D5-BF97-BFE102C919A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{252BEDCB-F109-48D6-BF9A-44E9BFC93E11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{252BEDCB-F109-48D6-BF9A-44E9BFC93E11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +134,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,31 +284,31 @@
             <c:numRef>
               <c:f>Sheet1!$E$5:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5420200462606015E-4</c:v>
+                  <c:v>2.2904801994889858E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.652300949598247E-4</c:v>
+                  <c:v>4.6836393940927044E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1326676176890159E-4</c:v>
+                  <c:v>8.6736618974882912E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2330456226880395E-3</c:v>
+                  <c:v>1.4713893414813372E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9569471624266144E-3</c:v>
+                  <c:v>2.319170832307366E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9239766081871348E-3</c:v>
+                  <c:v>3.4635976064527904E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1493775933609959E-3</c:v>
+                  <c:v>4.9264958303363304E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7142857142857143E-3</c:v>
+                  <c:v>6.7552504440582875E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,7 +414,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -616,28 +635,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.7108013937282234</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.656716417910445</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.739814152966403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.975609756097562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.15384615384616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.85714285714283</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.80321285140565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279.32960893854749</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,9 +2045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2066,7 +2085,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2172,7 +2191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2314,7 +2333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2325,35 +2344,35 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="2"/>
+    <col min="2" max="2" width="8.90625" style="5"/>
+    <col min="3" max="4" width="8.90625" style="2"/>
+    <col min="5" max="5" width="10.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2382,7 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2373,188 +2392,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>0.3</v>
       </c>
       <c r="C5" s="3">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="D5" s="3">
-        <v>32.89</v>
-      </c>
-      <c r="E5" s="3">
+        <v>43.658967242899699</v>
+      </c>
+      <c r="E5" s="11">
         <f>0.01/C5</f>
-        <v>1.5420200462606015E-4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="G5" s="3">
+        <v>2.2904801994889858E-4</v>
+      </c>
+      <c r="G5" s="3" t="e">
         <f>5/F5</f>
-        <v>8.7108013937282234</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>0.4</v>
       </c>
       <c r="C6" s="3">
-        <v>27.38</v>
-      </c>
-      <c r="D6" s="3">
-        <v>15.36</v>
-      </c>
-      <c r="E6" s="3">
+        <v>21.350917862320099</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" ref="E6:E12" si="0">0.01/C6</f>
-        <v>3.652300949598247E-4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="G6" s="3">
+        <v>4.6836393940927044E-4</v>
+      </c>
+      <c r="G6" s="3" t="e">
         <f t="shared" ref="G6:G12" si="1">5/F6</f>
-        <v>18.656716417910445</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>0.5</v>
       </c>
       <c r="C7" s="3">
-        <v>14.02</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8.02</v>
-      </c>
-      <c r="E7" s="3">
+        <v>11.529155872326299</v>
+      </c>
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>7.1326676176890159E-4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1399</v>
-      </c>
-      <c r="G7" s="3">
+        <v>8.6736618974882912E-4</v>
+      </c>
+      <c r="G7" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>35.739814152966403</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>0.6</v>
       </c>
       <c r="C8" s="3">
-        <v>8.11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E8" s="3">
+        <v>6.7962977018253996</v>
+      </c>
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>1.2330456226880395E-3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G8" s="3">
+        <v>1.4713893414813372E-3</v>
+      </c>
+      <c r="G8" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>60.975609756097562</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>0.7</v>
       </c>
       <c r="C9" s="3">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.98</v>
-      </c>
-      <c r="E9" s="3">
+        <v>4.3118858950338304</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>1.9569471624266144E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G9" s="3">
+        <v>2.319170832307366E-3</v>
+      </c>
+      <c r="G9" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>96.15384615384616</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>0.8</v>
       </c>
       <c r="C10" s="3">
-        <v>3.42</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E10" s="3">
+        <v>2.8871714143033498</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>2.9239766081871348E-3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="3">
+        <v>3.4635976064527904E-3</v>
+      </c>
+      <c r="G10" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>142.85714285714283</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>0.9</v>
       </c>
       <c r="C11" s="3">
-        <v>2.41</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="E11" s="3">
+        <v>2.0298403458340699</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>4.1493775933609959E-3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="G11" s="3">
+        <v>4.9264958303363304E-3</v>
+      </c>
+      <c r="G11" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>200.80321285140565</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="E12" s="3">
+        <v>1.48033001630542</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>5.7142857142857143E-3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="G12" s="3">
+        <v>6.7552504440582875E-3</v>
+      </c>
+      <c r="G12" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>279.32960893854749</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
